--- a/test_fa_result_export.xlsx
+++ b/test_fa_result_export.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F51"/>
+  <dimension ref="A1:F50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -457,1101 +457,1079 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>index</t>
+          <t>연구소수</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.029</v>
+        <v>0.012</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.219</v>
+        <v>-0.03</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9350000000000001</v>
+        <v>-0.06</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.046</v>
+        <v>-0.068</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.005</v>
+        <v>0.785</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>연구소수</t>
+          <t>연구원수(연)</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.012</v>
+        <v>-0.066</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.036</v>
+        <v>-0.006</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.059</v>
+        <v>-0.119</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.064</v>
+        <v>0.008</v>
       </c>
       <c r="F3" t="n">
-        <v>0.782</v>
+        <v>0.733</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>연구원수(연)</t>
+          <t>석박비율(연)</t>
         </is>
       </c>
       <c r="B4" t="n">
+        <v>-0.059</v>
+      </c>
+      <c r="C4" t="n">
         <v>-0.067</v>
       </c>
-      <c r="C4" t="n">
-        <v>-0.01</v>
-      </c>
       <c r="D4" t="n">
-        <v>-0.006</v>
+        <v>0.042</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.12</v>
+        <v>0.366</v>
       </c>
       <c r="F4" t="n">
-        <v>0.733</v>
+        <v>-0.05</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>석박비율(연)</t>
+          <t>전담부서수</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.06</v>
+        <v>0.014</v>
       </c>
       <c r="C5" t="n">
+        <v>-0.284</v>
+      </c>
+      <c r="D5" t="n">
         <v>-0.039</v>
       </c>
-      <c r="D5" t="n">
-        <v>0.372</v>
-      </c>
       <c r="E5" t="n">
-        <v>0.047</v>
+        <v>0.85</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.045</v>
+        <v>-0.015</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>전담부서수</t>
+          <t>연구원수(전)</t>
         </is>
       </c>
       <c r="B6" t="n">
         <v>0.013</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.217</v>
+        <v>0.014</v>
       </c>
       <c r="D6" t="n">
-        <v>0.916</v>
+        <v>-0.144</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.03</v>
+        <v>-0.055</v>
       </c>
       <c r="F6" t="n">
-        <v>-0</v>
+        <v>0.6840000000000001</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>연구원수(전)</t>
+          <t>석박비율(전)</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.013</v>
+        <v>-0.109</v>
       </c>
       <c r="C7" t="n">
-        <v>0.01</v>
+        <v>-0.047</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.045</v>
+        <v>-0.132</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.148</v>
+        <v>0.546</v>
       </c>
       <c r="F7" t="n">
-        <v>0.6820000000000001</v>
+        <v>0.005</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>석박비율(전)</t>
+          <t>경제활동인구</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.111</v>
+        <v>0.881</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.01</v>
+        <v>0.051</v>
       </c>
       <c r="D8" t="n">
-        <v>0.529</v>
+        <v>0.133</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.123</v>
+        <v>-0.062</v>
       </c>
       <c r="F8" t="n">
-        <v>0.016</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>경제활동인구</t>
+          <t>취업자</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.881</v>
+        <v>0.966</v>
       </c>
       <c r="C9" t="n">
-        <v>0.047</v>
+        <v>0.131</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.066</v>
+        <v>0.127</v>
       </c>
       <c r="E9" t="n">
-        <v>0.131</v>
+        <v>-0.024</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.001</v>
+        <v>0.012</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>취업자</t>
+          <t>비임금근로자</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.966</v>
+        <v>0.392</v>
       </c>
       <c r="C10" t="n">
-        <v>0.13</v>
+        <v>0.175</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.032</v>
+        <v>0.45</v>
       </c>
       <c r="E10" t="n">
-        <v>0.125</v>
+        <v>-0.027</v>
       </c>
       <c r="F10" t="n">
-        <v>0.013</v>
+        <v>-0.076</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>비임금근로자</t>
+          <t>고용원이 있는 자영업자</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.392</v>
+        <v>0.291</v>
       </c>
       <c r="C11" t="n">
-        <v>0.181</v>
+        <v>0.237</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.002</v>
+        <v>-0.001</v>
       </c>
       <c r="E11" t="n">
-        <v>0.445</v>
+        <v>-0.008</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.079</v>
+        <v>0.004</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>고용원이 있는 자영업자</t>
+          <t>고용원이 없는 자영업자</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.291</v>
+        <v>0.077</v>
       </c>
       <c r="C12" t="n">
-        <v>0.238</v>
+        <v>0.065</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.011</v>
+        <v>0.43</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.004</v>
+        <v>0.001</v>
       </c>
       <c r="F12" t="n">
-        <v>0.008</v>
+        <v>-0.05</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>고용원이 없는 자영업자</t>
+          <t>무급가족종사자</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.077</v>
+        <v>0.382</v>
       </c>
       <c r="C13" t="n">
-        <v>0.07099999999999999</v>
+        <v>0.022</v>
       </c>
       <c r="D13" t="n">
-        <v>0.019</v>
+        <v>0.323</v>
       </c>
       <c r="E13" t="n">
-        <v>0.428</v>
+        <v>-0.046</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.054</v>
+        <v>-0.08799999999999999</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>무급가족종사자</t>
+          <t>임금근로자</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.382</v>
+        <v>0.91</v>
       </c>
       <c r="C14" t="n">
-        <v>0.025</v>
+        <v>0.07199999999999999</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.018</v>
+        <v>-0.027</v>
       </c>
       <c r="E14" t="n">
-        <v>0.319</v>
+        <v>-0.017</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.092</v>
+        <v>0.043</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>임금근로자</t>
+          <t>상용근로자</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.91</v>
+        <v>0.353</v>
       </c>
       <c r="C15" t="n">
-        <v>0.068</v>
+        <v>0.283</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.033</v>
+        <v>0.033</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.027</v>
+        <v>0.006</v>
       </c>
       <c r="F15" t="n">
-        <v>0.044</v>
+        <v>0.162</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>상용근로자</t>
+          <t>임시근로자</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.352</v>
+        <v>0.699</v>
       </c>
       <c r="C16" t="n">
-        <v>0.282</v>
+        <v>-0.008999999999999999</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.013</v>
+        <v>-0.044</v>
       </c>
       <c r="E16" t="n">
-        <v>0.033</v>
+        <v>0.004</v>
       </c>
       <c r="F16" t="n">
-        <v>0.162</v>
+        <v>-0.006</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>임시근로자</t>
+          <t>일용근로자</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.699</v>
+        <v>0.602</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.01</v>
+        <v>-0.105</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.003</v>
+        <v>-0.025</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.044</v>
+        <v>-0.055</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.005</v>
+        <v>-0.054</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>일용근로자</t>
+          <t>남자</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.602</v>
+        <v>0.828</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.111</v>
+        <v>0.174</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.06</v>
+        <v>0.194</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.024</v>
+        <v>-0.033</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.053</v>
+        <v>0.089</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>남자</t>
+          <t>여자</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.828</v>
+        <v>0.929</v>
       </c>
       <c r="C19" t="n">
-        <v>0.17</v>
+        <v>0.082</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.056</v>
+        <v>0.06</v>
       </c>
       <c r="E19" t="n">
-        <v>0.193</v>
+        <v>-0.015</v>
       </c>
       <c r="F19" t="n">
-        <v>0.089</v>
+        <v>-0.044</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>여자</t>
+          <t>실업자</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.929</v>
+        <v>-0.255</v>
       </c>
       <c r="C20" t="n">
-        <v>0.083</v>
+        <v>-0.144</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.01</v>
+        <v>-0.005</v>
       </c>
       <c r="E20" t="n">
-        <v>0.059</v>
+        <v>-0.058</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.045</v>
+        <v>-0.021</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>실업자</t>
+          <t>15세이상인구</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-0.255</v>
+        <v>0.024</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.148</v>
+        <v>-0.29</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.051</v>
+        <v>-0.045</v>
       </c>
       <c r="E21" t="n">
-        <v>-0.005</v>
+        <v>0.863</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.022</v>
+        <v>-0.014</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>15세이상인구</t>
+          <t>비경제활동인구</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.023</v>
+        <v>-0.886</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.222</v>
+        <v>-0.03</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9350000000000001</v>
+        <v>-0.124</v>
       </c>
       <c r="E22" t="n">
-        <v>-0.037</v>
+        <v>-0.018</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>-0.002</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>비경제활동인구</t>
+          <t>경제활동참가율</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-0.886</v>
+        <v>0.864</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.032</v>
+        <v>0.034</v>
       </c>
       <c r="D23" t="n">
+        <v>0.117</v>
+      </c>
+      <c r="E23" t="n">
         <v>-0.022</v>
       </c>
-      <c r="E23" t="n">
-        <v>-0.123</v>
-      </c>
       <c r="F23" t="n">
-        <v>-0.003</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>경제활동참가율</t>
+          <t>고용률</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.865</v>
+        <v>0.96</v>
       </c>
       <c r="C24" t="n">
-        <v>0.033</v>
+        <v>0.122</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.018</v>
+        <v>0.109</v>
       </c>
       <c r="E24" t="n">
-        <v>0.115</v>
+        <v>0.014</v>
       </c>
       <c r="F24" t="n">
-        <v>0.001</v>
+        <v>0.014</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>고용률</t>
+          <t>경기종합지수_선행</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.96</v>
+        <v>0.136</v>
       </c>
       <c r="C25" t="n">
-        <v>0.123</v>
+        <v>-0.066</v>
       </c>
       <c r="D25" t="n">
-        <v>0.011</v>
+        <v>0.151</v>
       </c>
       <c r="E25" t="n">
-        <v>0.108</v>
+        <v>0.407</v>
       </c>
       <c r="F25" t="n">
-        <v>0.015</v>
+        <v>0.194</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>경기종합지수_선행</t>
+          <t>경기종합지수_동행</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.135</v>
+        <v>0.401</v>
       </c>
       <c r="C26" t="n">
-        <v>-0.051</v>
+        <v>0.284</v>
       </c>
       <c r="D26" t="n">
-        <v>0.316</v>
+        <v>0.443</v>
       </c>
       <c r="E26" t="n">
-        <v>0.164</v>
+        <v>0.181</v>
       </c>
       <c r="F26" t="n">
-        <v>0.21</v>
+        <v>-0.045</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>경기종합지수_동행</t>
+          <t>전체산업</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.401</v>
+        <v>0.257</v>
       </c>
       <c r="C27" t="n">
-        <v>0.29</v>
+        <v>0.034</v>
       </c>
       <c r="D27" t="n">
-        <v>0.11</v>
+        <v>0.738</v>
       </c>
       <c r="E27" t="n">
-        <v>0.449</v>
+        <v>0.122</v>
       </c>
       <c r="F27" t="n">
-        <v>-0.034</v>
+        <v>0.014</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>전체산업</t>
+          <t>광공업</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.258</v>
+        <v>-0.105</v>
       </c>
       <c r="C28" t="n">
-        <v>0.036</v>
+        <v>0.01</v>
       </c>
       <c r="D28" t="n">
-        <v>0.07199999999999999</v>
+        <v>0.632</v>
       </c>
       <c r="E28" t="n">
-        <v>0.743</v>
+        <v>0.139</v>
       </c>
       <c r="F28" t="n">
-        <v>0.022</v>
+        <v>0.06900000000000001</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>광공업</t>
+          <t>건설업</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-0.105</v>
+        <v>0.205</v>
       </c>
       <c r="C29" t="n">
-        <v>0.012</v>
+        <v>-0.041</v>
       </c>
       <c r="D29" t="n">
-        <v>0.08</v>
+        <v>0.699</v>
       </c>
       <c r="E29" t="n">
-        <v>0.639</v>
+        <v>-0.176</v>
       </c>
       <c r="F29" t="n">
-        <v>0.076</v>
+        <v>0.002</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>건설업</t>
+          <t>서비스업</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.206</v>
+        <v>0.489</v>
       </c>
       <c r="C30" t="n">
-        <v>-0.044</v>
+        <v>0.057</v>
       </c>
       <c r="D30" t="n">
-        <v>-0.118</v>
+        <v>0.199</v>
       </c>
       <c r="E30" t="n">
-        <v>0.6909999999999999</v>
+        <v>0.133</v>
       </c>
       <c r="F30" t="n">
-        <v>-0.006</v>
+        <v>-0.119</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>서비스업</t>
+          <t>공공행정</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.489</v>
+        <v>-0.004</v>
       </c>
       <c r="C31" t="n">
-        <v>0.061</v>
+        <v>0.021</v>
       </c>
       <c r="D31" t="n">
-        <v>0.091</v>
+        <v>0.297</v>
       </c>
       <c r="E31" t="n">
-        <v>0.203</v>
+        <v>0.003</v>
       </c>
       <c r="F31" t="n">
-        <v>-0.111</v>
+        <v>0.118</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>공공행정</t>
+          <t>총수주액</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>-0.003</v>
+        <v>0.007</v>
       </c>
       <c r="C32" t="n">
-        <v>0.019</v>
+        <v>-0.022</v>
       </c>
       <c r="D32" t="n">
-        <v>-0.011</v>
+        <v>0.296</v>
       </c>
       <c r="E32" t="n">
-        <v>0.296</v>
+        <v>0.039</v>
       </c>
       <c r="F32" t="n">
-        <v>0.119</v>
+        <v>0.66</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>총수주액</t>
+          <t>국내수요</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.007</v>
+        <v>0.091</v>
       </c>
       <c r="C33" t="n">
-        <v>-0.02</v>
+        <v>-0.008</v>
       </c>
       <c r="D33" t="n">
-        <v>0.031</v>
+        <v>0.25</v>
       </c>
       <c r="E33" t="n">
-        <v>0.294</v>
+        <v>-0.017</v>
       </c>
       <c r="F33" t="n">
-        <v>0.66</v>
+        <v>0.207</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>국내수요</t>
+          <t>대리점</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.091</v>
+        <v>0.008</v>
       </c>
       <c r="C34" t="n">
-        <v>-0.006</v>
+        <v>0.101</v>
       </c>
       <c r="D34" t="n">
-        <v>-0.006</v>
+        <v>-0.173</v>
       </c>
       <c r="E34" t="n">
-        <v>0.247</v>
+        <v>0.133</v>
       </c>
       <c r="F34" t="n">
-        <v>0.207</v>
+        <v>0.141</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>대리점</t>
+          <t>해외수요</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.007</v>
+        <v>-0.019</v>
       </c>
       <c r="C35" t="n">
-        <v>0.105</v>
+        <v>-0.025</v>
       </c>
       <c r="D35" t="n">
-        <v>0.09</v>
+        <v>0.25</v>
       </c>
       <c r="E35" t="n">
-        <v>-0.168</v>
+        <v>0.042</v>
       </c>
       <c r="F35" t="n">
-        <v>0.143</v>
+        <v>0.641</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>해외수요</t>
+          <t>총지수</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>-0.019</v>
+        <v>0.136</v>
       </c>
       <c r="C36" t="n">
-        <v>-0.023</v>
+        <v>0.283</v>
       </c>
       <c r="D36" t="n">
-        <v>0.032</v>
+        <v>0.102</v>
       </c>
       <c r="E36" t="n">
-        <v>0.249</v>
+        <v>0.518</v>
       </c>
       <c r="F36" t="n">
-        <v>0.641</v>
+        <v>0.081</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>총지수</t>
+          <t>설비투자지수</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.135</v>
+        <v>-0.101</v>
       </c>
       <c r="C37" t="n">
-        <v>0.315</v>
+        <v>-0.01</v>
       </c>
       <c r="D37" t="n">
-        <v>0.46</v>
+        <v>0.527</v>
       </c>
       <c r="E37" t="n">
-        <v>0.112</v>
+        <v>0.09</v>
       </c>
       <c r="F37" t="n">
-        <v>0.096</v>
+        <v>0.007</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>설비투자지수</t>
+          <t>건설기성액</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>-0.1</v>
+        <v>0.247</v>
       </c>
       <c r="C38" t="n">
-        <v>-0.011</v>
+        <v>-0.015</v>
       </c>
       <c r="D38" t="n">
-        <v>0.037</v>
+        <v>0.718</v>
       </c>
       <c r="E38" t="n">
-        <v>0.533</v>
+        <v>-0.115</v>
       </c>
       <c r="F38" t="n">
-        <v>0.013</v>
+        <v>-0.024</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>건설기성액</t>
+          <t>기업심리지수전망</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.249</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>-0.013</v>
+        <v>0.96</v>
       </c>
       <c r="D39" t="n">
-        <v>-0.059</v>
+        <v>0.028</v>
       </c>
       <c r="E39" t="n">
-        <v>0.711</v>
+        <v>-0.07000000000000001</v>
       </c>
       <c r="F39" t="n">
-        <v>-0.03</v>
+        <v>0.011</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>기업심리지수전망</t>
+          <t>업황전망BSI 1)</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.001</v>
+        <v>0.005</v>
       </c>
       <c r="C40" t="n">
-        <v>0.956</v>
+        <v>0.931</v>
       </c>
       <c r="D40" t="n">
-        <v>-0.109</v>
+        <v>0.014</v>
       </c>
       <c r="E40" t="n">
-        <v>0.023</v>
+        <v>0.042</v>
       </c>
       <c r="F40" t="n">
-        <v>0.011</v>
+        <v>0.008999999999999999</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>업황전망BSI 1)</t>
+          <t>매출전망BSI 2)</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.005</v>
+        <v>0.264</v>
       </c>
       <c r="C41" t="n">
-        <v>0.9360000000000001</v>
+        <v>0.306</v>
       </c>
       <c r="D41" t="n">
-        <v>0.01</v>
+        <v>0.117</v>
       </c>
       <c r="E41" t="n">
-        <v>0.011</v>
+        <v>0.26</v>
       </c>
       <c r="F41" t="n">
-        <v>0.01</v>
+        <v>0.153</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>매출전망BSI 2)</t>
+          <t>채산성전망BSI 6)</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.263</v>
+        <v>-0.036</v>
       </c>
       <c r="C42" t="n">
-        <v>0.314</v>
+        <v>0.8139999999999999</v>
       </c>
       <c r="D42" t="n">
-        <v>0.171</v>
+        <v>0.061</v>
       </c>
       <c r="E42" t="n">
-        <v>0.125</v>
+        <v>-0.315</v>
       </c>
       <c r="F42" t="n">
-        <v>0.165</v>
+        <v>0.073</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>채산성전망BSI 6)</t>
+          <t>자금사정전망BSI 6)</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>-0.035</v>
+        <v>0.004</v>
       </c>
       <c r="C43" t="n">
-        <v>0.787</v>
+        <v>0.908</v>
       </c>
       <c r="D43" t="n">
-        <v>-0.392</v>
+        <v>0.048</v>
       </c>
       <c r="E43" t="n">
-        <v>0.057</v>
+        <v>-0.235</v>
       </c>
       <c r="F43" t="n">
-        <v>0.06900000000000001</v>
+        <v>0.027</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>자금사정전망BSI 6)</t>
+          <t>인력사정전망BSI 3)</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.005</v>
+        <v>0.074</v>
       </c>
       <c r="C44" t="n">
-        <v>0.89</v>
+        <v>-0.177</v>
       </c>
       <c r="D44" t="n">
-        <v>-0.29</v>
+        <v>-0.039</v>
       </c>
       <c r="E44" t="n">
-        <v>0.043</v>
+        <v>-0.154</v>
       </c>
       <c r="F44" t="n">
-        <v>0.024</v>
+        <v>-0.215</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>인력사정전망BSI 3)</t>
+          <t>기업심리지수실적</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.075</v>
+        <v>0.192</v>
       </c>
       <c r="C45" t="n">
-        <v>-0.185</v>
+        <v>0.954</v>
       </c>
       <c r="D45" t="n">
-        <v>-0.115</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="E45" t="n">
-        <v>-0.042</v>
+        <v>0.07199999999999999</v>
       </c>
       <c r="F45" t="n">
-        <v>-0.219</v>
+        <v>-0.051</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>기업심리지수실적</t>
+          <t>업황실적BSI 1)</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.192</v>
+        <v>0.175</v>
       </c>
       <c r="C46" t="n">
-        <v>0.959</v>
+        <v>0.898</v>
       </c>
       <c r="D46" t="n">
-        <v>0.019</v>
+        <v>-0.005</v>
       </c>
       <c r="E46" t="n">
-        <v>0.008</v>
+        <v>0.205</v>
       </c>
       <c r="F46" t="n">
-        <v>-0.046</v>
+        <v>-0.04</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>업황실적BSI 1)</t>
+          <t>매출실적BSI 2)</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.174</v>
+        <v>0.152</v>
       </c>
       <c r="C47" t="n">
-        <v>0.913</v>
+        <v>0.902</v>
       </c>
       <c r="D47" t="n">
-        <v>0.161</v>
+        <v>-0.01</v>
       </c>
       <c r="E47" t="n">
-        <v>-0.005</v>
+        <v>0.042</v>
       </c>
       <c r="F47" t="n">
-        <v>-0.033</v>
+        <v>-0.052</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>매출실적BSI 2)</t>
+          <t>채산성실적BSI 6)</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.152</v>
+        <v>0.183</v>
       </c>
       <c r="C48" t="n">
-        <v>0.907</v>
+        <v>0.803</v>
       </c>
       <c r="D48" t="n">
-        <v>0.014</v>
+        <v>0.063</v>
       </c>
       <c r="E48" t="n">
+        <v>-0.221</v>
+      </c>
+      <c r="F48" t="n">
         <v>-0.013</v>
-      </c>
-      <c r="F48" t="n">
-        <v>-0.05</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>채산성실적BSI 6)</t>
+          <t>자금사정실적BSI 6)</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.183</v>
+        <v>0.211</v>
       </c>
       <c r="C49" t="n">
-        <v>0.78</v>
+        <v>0.909</v>
       </c>
       <c r="D49" t="n">
-        <v>-0.315</v>
+        <v>-0.004</v>
       </c>
       <c r="E49" t="n">
-        <v>0.062</v>
+        <v>-0.14</v>
       </c>
       <c r="F49" t="n">
-        <v>-0.012</v>
+        <v>-0.022</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>자금사정실적BSI 6)</t>
+          <t>인력사정실적BSI 3)</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.211</v>
+        <v>0.005</v>
       </c>
       <c r="C50" t="n">
-        <v>0.896</v>
+        <v>-0.148</v>
       </c>
       <c r="D50" t="n">
-        <v>-0.208</v>
+        <v>-0.008999999999999999</v>
       </c>
       <c r="E50" t="n">
-        <v>-0.007</v>
+        <v>-0.218</v>
       </c>
       <c r="F50" t="n">
-        <v>-0.021</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="1" t="inlineStr">
-        <is>
-          <t>인력사정실적BSI 3)</t>
-        </is>
-      </c>
-      <c r="B51" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="C51" t="n">
-        <v>-0.156</v>
-      </c>
-      <c r="D51" t="n">
-        <v>-0.151</v>
-      </c>
-      <c r="E51" t="n">
-        <v>-0.017</v>
-      </c>
-      <c r="F51" t="n">
-        <v>0.12</v>
+        <v>0.129</v>
       </c>
     </row>
   </sheetData>
@@ -1565,7 +1543,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B51"/>
+  <dimension ref="A1:B50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1581,501 +1559,491 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>index</t>
+          <t>연구소수</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.926</v>
+        <v>0.625</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>연구소수</t>
+          <t>연구원수(연)</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.621</v>
+        <v>0.556</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>연구원수(연)</t>
+          <t>석박비율(연)</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.556</v>
+        <v>0.146</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>석박비율(연)</t>
+          <t>전담부서수</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.147</v>
+        <v>0.806</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>전담부서수</t>
+          <t>연구원수(전)</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.888</v>
+        <v>0.492</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>연구원수(전)</t>
+          <t>석박비율(전)</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.489</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>석박비율(전)</t>
+          <t>경제활동인구</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.307</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>경제활동인구</t>
+          <t>취업자</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.8</v>
+        <v>0.967</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>취업자</t>
+          <t>비임금근로자</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.967</v>
+        <v>0.393</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>비임금근로자</t>
+          <t>고용원이 있는 자영업자</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.39</v>
+        <v>0.141</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>고용원이 있는 자영업자</t>
+          <t>고용원이 없는 자영업자</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.141</v>
+        <v>0.198</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>고용원이 없는 자영업자</t>
+          <t>무급가족종사자</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.197</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>무급가족종사자</t>
+          <t>임금근로자</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.257</v>
+        <v>0.837</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>임금근로자</t>
+          <t>상용근로자</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.837</v>
+        <v>0.231</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>상용근로자</t>
+          <t>임시근로자</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.231</v>
+        <v>0.491</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>임시근로자</t>
+          <t>일용근로자</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.491</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>일용근로자</t>
+          <t>남자</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.382</v>
+        <v>0.763</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>남자</t>
+          <t>여자</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.763</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>여자</t>
+          <t>실업자</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.875</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>실업자</t>
+          <t>15세이상인구</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.09</v>
+        <v>0.832</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>15세이상인구</t>
+          <t>비경제활동인구</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.926</v>
+        <v>0.801</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>비경제활동인구</t>
+          <t>경제활동참가율</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.802</v>
+        <v>0.763</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>경제활동참가율</t>
+          <t>고용률</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.762</v>
+        <v>0.948</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>고용률</t>
+          <t>경기종합지수_선행</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.948</v>
+        <v>0.249</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>경기종합지수_선행</t>
+          <t>경기종합지수_동행</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.192</v>
+        <v>0.473</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>경기종합지수_동행</t>
+          <t>전체산업</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.46</v>
+        <v>0.627</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>전체산업</t>
+          <t>광공업</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.625</v>
+        <v>0.435</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>광공업</t>
+          <t>건설업</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.431</v>
+        <v>0.5629999999999999</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>건설업</t>
+          <t>서비스업</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.535</v>
+        <v>0.314</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>서비스업</t>
+          <t>공공행정</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.305</v>
+        <v>0.102</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>공공행정</t>
+          <t>총수주액</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.102</v>
+        <v>0.525</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>총수주액</t>
+          <t>국내수요</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.523</v>
+        <v>0.114</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>국내수요</t>
+          <t>대리점</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.112</v>
+        <v>0.078</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>대리점</t>
+          <t>해외수요</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.068</v>
+        <v>0.477</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>해외수요</t>
+          <t>총지수</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.475</v>
+        <v>0.384</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>총지수</t>
+          <t>설비투자지수</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.351</v>
+        <v>0.296</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>설비투자지수</t>
+          <t>건설기성액</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.295</v>
+        <v>0.591</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>건설기성액</t>
+          <t>기업심리지수전망</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.572</v>
+        <v>0.927</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>기업심리지수전망</t>
+          <t>업황전망BSI 1)</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.927</v>
+        <v>0.868</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>업황전망BSI 1)</t>
+          <t>매출전망BSI 2)</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.876</v>
+        <v>0.268</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>매출전망BSI 2)</t>
+          <t>채산성전망BSI 6)</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.24</v>
+        <v>0.771</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>채산성전망BSI 6)</t>
+          <t>자금사정전망BSI 6)</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.782</v>
+        <v>0.882</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>자금사정전망BSI 6)</t>
+          <t>인력사정전망BSI 3)</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.878</v>
+        <v>0.108</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>인력사정전망BSI 3)</t>
+          <t>기업심리지수실적</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.103</v>
+        <v>0.955</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>기업심리지수실적</t>
+          <t>업황실적BSI 1)</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.959</v>
+        <v>0.881</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>업황실적BSI 1)</t>
+          <t>매출실적BSI 2)</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.891</v>
+        <v>0.841</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>매출실적BSI 2)</t>
+          <t>채산성실적BSI 6)</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.849</v>
+        <v>0.731</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>채산성실적BSI 6)</t>
+          <t>자금사정실적BSI 6)</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.746</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>자금사정실적BSI 6)</t>
+          <t>인력사정실적BSI 3)</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.89</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="1" t="inlineStr">
-        <is>
-          <t>인력사정실적BSI 3)</t>
-        </is>
-      </c>
-      <c r="B51" t="n">
-        <v>0.062</v>
+        <v>0.08599999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -2089,7 +2057,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY3"/>
+  <dimension ref="A1:AX3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2245,52 +2213,49 @@
       <c r="AX1" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="AY1" s="1" t="n">
-        <v>49</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>10.885</v>
+        <v>10.84</v>
       </c>
       <c r="C2" t="n">
-        <v>6.932</v>
+        <v>6.765</v>
       </c>
       <c r="D2" t="n">
-        <v>3.491</v>
+        <v>3.103</v>
       </c>
       <c r="E2" t="n">
-        <v>3.081</v>
+        <v>2.802</v>
       </c>
       <c r="F2" t="n">
-        <v>2.657</v>
+        <v>2.652</v>
       </c>
       <c r="G2" t="n">
-        <v>2.178</v>
+        <v>2.168</v>
       </c>
       <c r="H2" t="n">
-        <v>2.113</v>
+        <v>2.11</v>
       </c>
       <c r="I2" t="n">
-        <v>1.706</v>
+        <v>1.656</v>
       </c>
       <c r="J2" t="n">
-        <v>1.589</v>
+        <v>1.588</v>
       </c>
       <c r="K2" t="n">
-        <v>1.313</v>
+        <v>1.312</v>
       </c>
       <c r="L2" t="n">
-        <v>1.21</v>
+        <v>1.207</v>
       </c>
       <c r="M2" t="n">
         <v>1.177</v>
       </c>
       <c r="N2" t="n">
-        <v>1.079</v>
+        <v>1.078</v>
       </c>
       <c r="O2" t="n">
         <v>1.044</v>
@@ -2299,13 +2264,13 @@
         <v>0.992</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.973</v>
+        <v>0.972</v>
       </c>
       <c r="R2" t="n">
-        <v>0.96</v>
+        <v>0.95</v>
       </c>
       <c r="S2" t="n">
-        <v>0.855</v>
+        <v>0.853</v>
       </c>
       <c r="T2" t="n">
         <v>0.772</v>
@@ -2320,37 +2285,37 @@
         <v>0.534</v>
       </c>
       <c r="X2" t="n">
-        <v>0.502</v>
+        <v>0.492</v>
       </c>
       <c r="Y2" t="n">
         <v>0.44</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.389</v>
+        <v>0.385</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.356</v>
+        <v>0.355</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.326</v>
+        <v>0.322</v>
       </c>
       <c r="AC2" t="n">
         <v>0.277</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.208</v>
+        <v>0.207</v>
       </c>
       <c r="AE2" t="n">
         <v>0.202</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.155</v>
+        <v>0.153</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.106</v>
+        <v>0.105</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.059</v>
+        <v>0.058</v>
       </c>
       <c r="AI2" t="n">
         <v>0.045</v>
@@ -2371,22 +2336,22 @@
         <v>0.016</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.011</v>
+        <v>0.007</v>
       </c>
       <c r="AP2" t="n">
-        <v>0.005</v>
+        <v>0.004</v>
       </c>
       <c r="AQ2" t="n">
-        <v>0.004</v>
+        <v>0.003</v>
       </c>
       <c r="AR2" t="n">
-        <v>0.003</v>
+        <v>0.002</v>
       </c>
       <c r="AS2" t="n">
         <v>0.002</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -2398,10 +2363,7 @@
         <v>0</v>
       </c>
       <c r="AX2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="3">
@@ -2409,154 +2371,151 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>10.639</v>
+        <v>10.591</v>
       </c>
       <c r="C3" t="n">
-        <v>6.744</v>
+        <v>6.572</v>
       </c>
       <c r="D3" t="n">
-        <v>3.25</v>
+        <v>2.602</v>
       </c>
       <c r="E3" t="n">
-        <v>2.578</v>
+        <v>2.44</v>
       </c>
       <c r="F3" t="n">
-        <v>2.175</v>
+        <v>2.179</v>
       </c>
       <c r="G3" t="n">
         <v>1.591</v>
       </c>
       <c r="H3" t="n">
-        <v>1.542</v>
+        <v>1.539</v>
       </c>
       <c r="I3" t="n">
-        <v>1.131</v>
+        <v>1.124</v>
       </c>
       <c r="J3" t="n">
-        <v>0.979</v>
+        <v>0.983</v>
       </c>
       <c r="K3" t="n">
-        <v>0.662</v>
+        <v>0.663</v>
       </c>
       <c r="L3" t="n">
-        <v>0.573</v>
+        <v>0.581</v>
       </c>
       <c r="M3" t="n">
-        <v>0.5</v>
+        <v>0.504</v>
       </c>
       <c r="N3" t="n">
-        <v>0.43</v>
+        <v>0.435</v>
       </c>
       <c r="O3" t="n">
-        <v>0.382</v>
+        <v>0.387</v>
       </c>
       <c r="P3" t="n">
-        <v>0.344</v>
+        <v>0.343</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.226</v>
+        <v>0.228</v>
       </c>
       <c r="R3" t="n">
-        <v>0.188</v>
+        <v>0.191</v>
       </c>
       <c r="S3" t="n">
-        <v>0.15</v>
+        <v>0.154</v>
       </c>
       <c r="T3" t="n">
-        <v>0.108</v>
+        <v>0.116</v>
       </c>
       <c r="U3" t="n">
-        <v>0.068</v>
+        <v>0.06900000000000001</v>
       </c>
       <c r="V3" t="n">
-        <v>0.005</v>
+        <v>0.004</v>
       </c>
       <c r="W3" t="n">
-        <v>-0.017</v>
+        <v>-0.023</v>
       </c>
       <c r="X3" t="n">
-        <v>-0.03</v>
+        <v>-0.029</v>
       </c>
       <c r="Y3" t="n">
-        <v>-0.048</v>
+        <v>-0.053</v>
       </c>
       <c r="Z3" t="n">
-        <v>-0.05</v>
+        <v>-0.055</v>
       </c>
       <c r="AA3" t="n">
-        <v>-0.076</v>
+        <v>-0.079</v>
       </c>
       <c r="AB3" t="n">
-        <v>-0.079</v>
+        <v>-0.08799999999999999</v>
       </c>
       <c r="AC3" t="n">
-        <v>-0.08599999999999999</v>
+        <v>-0.096</v>
       </c>
       <c r="AD3" t="n">
-        <v>-0.092</v>
+        <v>-0.113</v>
       </c>
       <c r="AE3" t="n">
-        <v>-0.099</v>
+        <v>-0.144</v>
       </c>
       <c r="AF3" t="n">
-        <v>-0.109</v>
+        <v>-0.156</v>
       </c>
       <c r="AG3" t="n">
-        <v>-0.144</v>
+        <v>-0.174</v>
       </c>
       <c r="AH3" t="n">
-        <v>-0.16</v>
+        <v>-0.177</v>
       </c>
       <c r="AI3" t="n">
-        <v>-0.178</v>
+        <v>-0.19</v>
       </c>
       <c r="AJ3" t="n">
-        <v>-0.185</v>
+        <v>-0.197</v>
       </c>
       <c r="AK3" t="n">
-        <v>-0.197</v>
+        <v>-0.204</v>
       </c>
       <c r="AL3" t="n">
-        <v>-0.205</v>
+        <v>-0.218</v>
       </c>
       <c r="AM3" t="n">
-        <v>-0.224</v>
+        <v>-0.225</v>
       </c>
       <c r="AN3" t="n">
-        <v>-0.231</v>
+        <v>-0.26</v>
       </c>
       <c r="AO3" t="n">
-        <v>-0.27</v>
+        <v>-0.302</v>
       </c>
       <c r="AP3" t="n">
-        <v>-0.314</v>
+        <v>-0.321</v>
       </c>
       <c r="AQ3" t="n">
-        <v>-0.329</v>
+        <v>-0.356</v>
       </c>
       <c r="AR3" t="n">
-        <v>-0.372</v>
+        <v>-0.395</v>
       </c>
       <c r="AS3" t="n">
-        <v>-0.418</v>
+        <v>-0.421</v>
       </c>
       <c r="AT3" t="n">
-        <v>-0.438</v>
+        <v>-0.482</v>
       </c>
       <c r="AU3" t="n">
-        <v>-0.485</v>
+        <v>-0.51</v>
       </c>
       <c r="AV3" t="n">
-        <v>-0.515</v>
+        <v>-0.523</v>
       </c>
       <c r="AW3" t="n">
-        <v>-0.525</v>
+        <v>-0.628</v>
       </c>
       <c r="AX3" t="n">
-        <v>-0.628</v>
-      </c>
-      <c r="AY3" t="n">
-        <v>-0.718</v>
+        <v>-0.717</v>
       </c>
     </row>
   </sheetData>
@@ -2600,19 +2559,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>8.875999999999999</v>
+        <v>8.872</v>
       </c>
       <c r="C2" t="n">
-        <v>7.983</v>
+        <v>8.058</v>
       </c>
       <c r="D2" t="n">
-        <v>3.887</v>
+        <v>3.526</v>
       </c>
       <c r="E2" t="n">
-        <v>3.524</v>
+        <v>2.934</v>
       </c>
       <c r="F2" t="n">
-        <v>2.775</v>
+        <v>2.771</v>
       </c>
     </row>
     <row r="3">
@@ -2620,19 +2579,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.178</v>
+        <v>0.181</v>
       </c>
       <c r="C3" t="n">
-        <v>0.16</v>
+        <v>0.164</v>
       </c>
       <c r="D3" t="n">
-        <v>0.078</v>
+        <v>0.07199999999999999</v>
       </c>
       <c r="E3" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="F3" t="n">
-        <v>0.055</v>
+        <v>0.057</v>
       </c>
     </row>
     <row r="4">
@@ -2640,19 +2599,19 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.178</v>
+        <v>0.181</v>
       </c>
       <c r="C4" t="n">
-        <v>0.337</v>
+        <v>0.346</v>
       </c>
       <c r="D4" t="n">
-        <v>0.415</v>
+        <v>0.417</v>
       </c>
       <c r="E4" t="n">
-        <v>0.485</v>
+        <v>0.477</v>
       </c>
       <c r="F4" t="n">
-        <v>0.541</v>
+        <v>0.534</v>
       </c>
     </row>
   </sheetData>
@@ -2666,7 +2625,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B51"/>
+  <dimension ref="A1:B50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2684,7 +2643,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.074</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="3">
@@ -2692,7 +2651,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.379</v>
+        <v>0.444</v>
       </c>
     </row>
     <row r="4">
@@ -2700,7 +2659,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.444</v>
+        <v>0.854</v>
       </c>
     </row>
     <row r="5">
@@ -2708,7 +2667,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.853</v>
+        <v>0.194</v>
       </c>
     </row>
     <row r="6">
@@ -2716,7 +2675,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.112</v>
+        <v>0.508</v>
       </c>
     </row>
     <row r="7">
@@ -2724,7 +2683,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.511</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="8">
@@ -2732,7 +2691,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.6929999999999999</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="9">
@@ -2740,7 +2699,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.2</v>
+        <v>0.033</v>
       </c>
     </row>
     <row r="10">
@@ -2748,7 +2707,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.033</v>
+        <v>0.607</v>
       </c>
     </row>
     <row r="11">
@@ -2756,7 +2715,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.61</v>
+        <v>0.859</v>
       </c>
     </row>
     <row r="12">
@@ -2764,7 +2723,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.859</v>
+        <v>0.802</v>
       </c>
     </row>
     <row r="13">
@@ -2772,7 +2731,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.803</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="14">
@@ -2780,7 +2739,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.743</v>
+        <v>0.163</v>
       </c>
     </row>
     <row r="15">
@@ -2788,7 +2747,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.163</v>
+        <v>0.769</v>
       </c>
     </row>
     <row r="16">
@@ -2796,7 +2755,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.769</v>
+        <v>0.509</v>
       </c>
     </row>
     <row r="17">
@@ -2804,7 +2763,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.509</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="18">
@@ -2812,7 +2771,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.618</v>
+        <v>0.237</v>
       </c>
     </row>
     <row r="19">
@@ -2820,7 +2779,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.237</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="20">
@@ -2828,7 +2787,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.125</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="21">
@@ -2836,7 +2795,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.91</v>
+        <v>0.168</v>
       </c>
     </row>
     <row r="22">
@@ -2844,7 +2803,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.074</v>
+        <v>0.199</v>
       </c>
     </row>
     <row r="23">
@@ -2852,7 +2811,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.198</v>
+        <v>0.237</v>
       </c>
     </row>
     <row r="24">
@@ -2860,7 +2819,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.238</v>
+        <v>0.052</v>
       </c>
     </row>
     <row r="25">
@@ -2868,7 +2827,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.052</v>
+        <v>0.751</v>
       </c>
     </row>
     <row r="26">
@@ -2876,7 +2835,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.8080000000000001</v>
+        <v>0.527</v>
       </c>
     </row>
     <row r="27">
@@ -2884,7 +2843,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.54</v>
+        <v>0.373</v>
       </c>
     </row>
     <row r="28">
@@ -2892,7 +2851,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.375</v>
+        <v>0.5649999999999999</v>
       </c>
     </row>
     <row r="29">
@@ -2900,7 +2859,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.569</v>
+        <v>0.437</v>
       </c>
     </row>
     <row r="30">
@@ -2908,7 +2867,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.465</v>
+        <v>0.6860000000000001</v>
       </c>
     </row>
     <row r="31">
@@ -2916,7 +2875,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.695</v>
+        <v>0.898</v>
       </c>
     </row>
     <row r="32">
@@ -2924,7 +2883,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>0.898</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="33">
@@ -2932,7 +2891,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>0.477</v>
+        <v>0.886</v>
       </c>
     </row>
     <row r="34">
@@ -2940,7 +2899,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>0.888</v>
+        <v>0.922</v>
       </c>
     </row>
     <row r="35">
@@ -2948,7 +2907,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>0.9320000000000001</v>
+        <v>0.523</v>
       </c>
     </row>
     <row r="36">
@@ -2956,7 +2915,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>0.525</v>
+        <v>0.616</v>
       </c>
     </row>
     <row r="37">
@@ -2964,7 +2923,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>0.649</v>
+        <v>0.704</v>
       </c>
     </row>
     <row r="38">
@@ -2972,7 +2931,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>0.705</v>
+        <v>0.409</v>
       </c>
     </row>
     <row r="39">
@@ -2980,7 +2939,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>0.428</v>
+        <v>0.073</v>
       </c>
     </row>
     <row r="40">
@@ -2988,7 +2947,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>0.073</v>
+        <v>0.132</v>
       </c>
     </row>
     <row r="41">
@@ -2996,7 +2955,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>0.124</v>
+        <v>0.732</v>
       </c>
     </row>
     <row r="42">
@@ -3004,7 +2963,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>0.76</v>
+        <v>0.229</v>
       </c>
     </row>
     <row r="43">
@@ -3012,7 +2971,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>0.218</v>
+        <v>0.118</v>
       </c>
     </row>
     <row r="44">
@@ -3020,7 +2979,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>0.122</v>
+        <v>0.892</v>
       </c>
     </row>
     <row r="45">
@@ -3028,7 +2987,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>0.897</v>
+        <v>0.045</v>
       </c>
     </row>
     <row r="46">
@@ -3036,7 +2995,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>0.041</v>
+        <v>0.119</v>
       </c>
     </row>
     <row r="47">
@@ -3044,7 +3003,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>0.109</v>
+        <v>0.159</v>
       </c>
     </row>
     <row r="48">
@@ -3052,7 +3011,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>0.151</v>
+        <v>0.269</v>
       </c>
     </row>
     <row r="49">
@@ -3060,7 +3019,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>0.254</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="50">
@@ -3068,15 +3027,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>0.11</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="1" t="n">
-        <v>49</v>
-      </c>
-      <c r="B51" t="n">
-        <v>0.9379999999999999</v>
+        <v>0.914</v>
       </c>
     </row>
   </sheetData>

--- a/test_fa_result_export.xlsx
+++ b/test_fa_result_export.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F50"/>
+  <dimension ref="A1:E50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -450,9 +450,6 @@
       <c r="E1" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="n">
-        <v>4</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -461,19 +458,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.012</v>
+        <v>-0.068</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.03</v>
+        <v>-0.007</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.06</v>
+        <v>0.321</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.068</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.785</v>
+        <v>0.061</v>
       </c>
     </row>
     <row r="3">
@@ -483,19 +477,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.066</v>
+        <v>-0.147</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.006</v>
+        <v>0.014</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.119</v>
+        <v>0.256</v>
       </c>
       <c r="E3" t="n">
-        <v>0.008</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.733</v>
+        <v>0.137</v>
       </c>
     </row>
     <row r="4">
@@ -505,19 +496,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.059</v>
+        <v>-0.04</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.067</v>
+        <v>-0.081</v>
       </c>
       <c r="D4" t="n">
-        <v>0.042</v>
+        <v>0.044</v>
       </c>
       <c r="E4" t="n">
-        <v>0.366</v>
-      </c>
-      <c r="F4" t="n">
-        <v>-0.05</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="5">
@@ -527,19 +515,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.014</v>
+        <v>0.029</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.284</v>
+        <v>-0.311</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.039</v>
+        <v>0.021</v>
       </c>
       <c r="E5" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="F5" t="n">
-        <v>-0.015</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="6">
@@ -549,19 +534,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.013</v>
+        <v>-0.06900000000000001</v>
       </c>
       <c r="C6" t="n">
-        <v>0.014</v>
+        <v>0.035</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.144</v>
+        <v>0.2</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.055</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.6840000000000001</v>
+        <v>0.074</v>
       </c>
     </row>
     <row r="7">
@@ -571,19 +553,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.109</v>
+        <v>-0.113</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.047</v>
+        <v>-0.063</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.132</v>
+        <v>-0.063</v>
       </c>
       <c r="E7" t="n">
-        <v>0.546</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.005</v>
+        <v>0.552</v>
       </c>
     </row>
     <row r="8">
@@ -593,19 +572,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.881</v>
+        <v>0.886</v>
       </c>
       <c r="C8" t="n">
         <v>0.051</v>
       </c>
       <c r="D8" t="n">
-        <v>0.133</v>
+        <v>0.043</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.062</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
+        <v>-0.07099999999999999</v>
       </c>
     </row>
     <row r="9">
@@ -615,19 +591,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.966</v>
+        <v>0.969</v>
       </c>
       <c r="C9" t="n">
-        <v>0.131</v>
+        <v>0.13</v>
       </c>
       <c r="D9" t="n">
-        <v>0.127</v>
+        <v>0.04</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.024</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0.012</v>
+        <v>-0.028</v>
       </c>
     </row>
     <row r="10">
@@ -637,19 +610,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.392</v>
+        <v>0.454</v>
       </c>
       <c r="C10" t="n">
-        <v>0.175</v>
+        <v>0.166</v>
       </c>
       <c r="D10" t="n">
-        <v>0.45</v>
+        <v>0.323</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.027</v>
-      </c>
-      <c r="F10" t="n">
-        <v>-0.076</v>
+        <v>-0.103</v>
       </c>
     </row>
     <row r="11">
@@ -659,19 +629,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.291</v>
+        <v>0.287</v>
       </c>
       <c r="C11" t="n">
         <v>0.237</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.001</v>
+        <v>-0.021</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.008</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0.004</v>
+        <v>0.003</v>
       </c>
     </row>
     <row r="12">
@@ -681,19 +648,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.077</v>
+        <v>0.139</v>
       </c>
       <c r="C12" t="n">
-        <v>0.065</v>
+        <v>0.056</v>
       </c>
       <c r="D12" t="n">
-        <v>0.43</v>
+        <v>0.345</v>
       </c>
       <c r="E12" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="F12" t="n">
-        <v>-0.05</v>
+        <v>-0.076</v>
       </c>
     </row>
     <row r="13">
@@ -703,19 +667,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.382</v>
+        <v>0.427</v>
       </c>
       <c r="C13" t="n">
-        <v>0.022</v>
+        <v>0.016</v>
       </c>
       <c r="D13" t="n">
-        <v>0.323</v>
+        <v>0.205</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.046</v>
-      </c>
-      <c r="F13" t="n">
-        <v>-0.08799999999999999</v>
+        <v>-0.106</v>
       </c>
     </row>
     <row r="14">
@@ -725,19 +686,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.91</v>
+        <v>0.891</v>
       </c>
       <c r="C14" t="n">
-        <v>0.07199999999999999</v>
+        <v>0.074</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.027</v>
+        <v>-0.074</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.017</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0.043</v>
+        <v>0.008</v>
       </c>
     </row>
     <row r="15">
@@ -747,19 +705,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.353</v>
+        <v>0.34</v>
       </c>
       <c r="C15" t="n">
-        <v>0.283</v>
+        <v>0.286</v>
       </c>
       <c r="D15" t="n">
-        <v>0.033</v>
+        <v>0.081</v>
       </c>
       <c r="E15" t="n">
-        <v>0.006</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0.162</v>
+        <v>0.036</v>
       </c>
     </row>
     <row r="16">
@@ -769,19 +724,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.699</v>
+        <v>0.6840000000000001</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.008999999999999999</v>
+        <v>-0.008</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.044</v>
+        <v>-0.095</v>
       </c>
       <c r="E16" t="n">
-        <v>0.004</v>
-      </c>
-      <c r="F16" t="n">
-        <v>-0.006</v>
+        <v>0.019</v>
       </c>
     </row>
     <row r="17">
@@ -791,19 +743,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.602</v>
+        <v>0.594</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.105</v>
+        <v>-0.104</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.025</v>
+        <v>-0.098</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.055</v>
-      </c>
-      <c r="F17" t="n">
-        <v>-0.054</v>
+        <v>-0.053</v>
       </c>
     </row>
     <row r="18">
@@ -813,19 +762,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.828</v>
+        <v>0.835</v>
       </c>
       <c r="C18" t="n">
         <v>0.174</v>
       </c>
       <c r="D18" t="n">
-        <v>0.194</v>
+        <v>0.146</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.033</v>
-      </c>
-      <c r="F18" t="n">
-        <v>0.089</v>
+        <v>-0.037</v>
       </c>
     </row>
     <row r="19">
@@ -835,19 +781,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.929</v>
+        <v>0.928</v>
       </c>
       <c r="C19" t="n">
-        <v>0.082</v>
+        <v>0.081</v>
       </c>
       <c r="D19" t="n">
-        <v>0.06</v>
+        <v>-0.041</v>
       </c>
       <c r="E19" t="n">
-        <v>-0.015</v>
-      </c>
-      <c r="F19" t="n">
-        <v>-0.044</v>
+        <v>-0.017</v>
       </c>
     </row>
     <row r="20">
@@ -857,19 +800,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.255</v>
+        <v>-0.253</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.144</v>
+        <v>-0.142</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.005</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>-0.058</v>
-      </c>
-      <c r="F20" t="n">
-        <v>-0.021</v>
+        <v>-0.066</v>
       </c>
     </row>
     <row r="21">
@@ -879,19 +819,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.024</v>
+        <v>0.038</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.29</v>
+        <v>-0.318</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.045</v>
+        <v>0.016</v>
       </c>
       <c r="E21" t="n">
-        <v>0.863</v>
-      </c>
-      <c r="F21" t="n">
-        <v>-0.014</v>
+        <v>0.839</v>
       </c>
     </row>
     <row r="22">
@@ -901,19 +838,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-0.886</v>
+        <v>-0.891</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.03</v>
+        <v>-0.027</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.124</v>
+        <v>-0.042</v>
       </c>
       <c r="E22" t="n">
-        <v>-0.018</v>
-      </c>
-      <c r="F22" t="n">
-        <v>-0.002</v>
+        <v>-0.008999999999999999</v>
       </c>
     </row>
     <row r="23">
@@ -923,19 +857,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.864</v>
+        <v>0.868</v>
       </c>
       <c r="C23" t="n">
+        <v>0.032</v>
+      </c>
+      <c r="D23" t="n">
         <v>0.034</v>
       </c>
-      <c r="D23" t="n">
-        <v>0.117</v>
-      </c>
       <c r="E23" t="n">
-        <v>-0.022</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0.001</v>
+        <v>-0.029</v>
       </c>
     </row>
     <row r="24">
@@ -945,19 +876,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.96</v>
+        <v>0.961</v>
       </c>
       <c r="C24" t="n">
-        <v>0.122</v>
+        <v>0.12</v>
       </c>
       <c r="D24" t="n">
-        <v>0.109</v>
+        <v>0.029</v>
       </c>
       <c r="E24" t="n">
-        <v>0.014</v>
-      </c>
-      <c r="F24" t="n">
-        <v>0.014</v>
+        <v>0.013</v>
       </c>
     </row>
     <row r="25">
@@ -967,19 +895,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.136</v>
+        <v>0.147</v>
       </c>
       <c r="C25" t="n">
-        <v>-0.066</v>
+        <v>-0.077</v>
       </c>
       <c r="D25" t="n">
-        <v>0.151</v>
+        <v>0.245</v>
       </c>
       <c r="E25" t="n">
-        <v>0.407</v>
-      </c>
-      <c r="F25" t="n">
-        <v>0.194</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="26">
@@ -989,19 +914,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.401</v>
+        <v>0.465</v>
       </c>
       <c r="C26" t="n">
-        <v>0.284</v>
+        <v>0.27</v>
       </c>
       <c r="D26" t="n">
-        <v>0.443</v>
+        <v>0.348</v>
       </c>
       <c r="E26" t="n">
-        <v>0.181</v>
-      </c>
-      <c r="F26" t="n">
-        <v>-0.045</v>
+        <v>0.107</v>
       </c>
     </row>
     <row r="27">
@@ -1011,19 +933,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.257</v>
+        <v>0.355</v>
       </c>
       <c r="C27" t="n">
-        <v>0.034</v>
+        <v>0.018</v>
       </c>
       <c r="D27" t="n">
-        <v>0.738</v>
+        <v>0.638</v>
       </c>
       <c r="E27" t="n">
-        <v>0.122</v>
-      </c>
-      <c r="F27" t="n">
-        <v>0.014</v>
+        <v>0.002</v>
       </c>
     </row>
     <row r="28">
@@ -1033,19 +952,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>-0.105</v>
+        <v>-0.021</v>
       </c>
       <c r="C28" t="n">
-        <v>0.01</v>
+        <v>-0.004</v>
       </c>
       <c r="D28" t="n">
-        <v>0.632</v>
+        <v>0.601</v>
       </c>
       <c r="E28" t="n">
-        <v>0.139</v>
-      </c>
-      <c r="F28" t="n">
-        <v>0.06900000000000001</v>
+        <v>0.039</v>
       </c>
     </row>
     <row r="29">
@@ -1055,19 +971,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.205</v>
+        <v>0.292</v>
       </c>
       <c r="C29" t="n">
-        <v>-0.041</v>
+        <v>-0.047</v>
       </c>
       <c r="D29" t="n">
-        <v>0.699</v>
+        <v>0.578</v>
       </c>
       <c r="E29" t="n">
-        <v>-0.176</v>
-      </c>
-      <c r="F29" t="n">
-        <v>0.002</v>
+        <v>-0.287</v>
       </c>
     </row>
     <row r="30">
@@ -1077,19 +990,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.489</v>
+        <v>0.523</v>
       </c>
       <c r="C30" t="n">
-        <v>0.057</v>
+        <v>0.046</v>
       </c>
       <c r="D30" t="n">
-        <v>0.199</v>
+        <v>0.08799999999999999</v>
       </c>
       <c r="E30" t="n">
-        <v>0.133</v>
-      </c>
-      <c r="F30" t="n">
-        <v>-0.119</v>
+        <v>0.08500000000000001</v>
       </c>
     </row>
     <row r="31">
@@ -1099,19 +1009,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>-0.004</v>
+        <v>0.026</v>
       </c>
       <c r="C31" t="n">
-        <v>0.021</v>
+        <v>0.019</v>
       </c>
       <c r="D31" t="n">
-        <v>0.297</v>
+        <v>0.315</v>
       </c>
       <c r="E31" t="n">
-        <v>0.003</v>
-      </c>
-      <c r="F31" t="n">
-        <v>0.118</v>
+        <v>-0.029</v>
       </c>
     </row>
     <row r="32">
@@ -1121,19 +1028,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.007</v>
+        <v>-0.011</v>
       </c>
       <c r="C32" t="n">
-        <v>-0.022</v>
+        <v>-0.012</v>
       </c>
       <c r="D32" t="n">
-        <v>0.296</v>
+        <v>0.578</v>
       </c>
       <c r="E32" t="n">
-        <v>0.039</v>
-      </c>
-      <c r="F32" t="n">
-        <v>0.66</v>
+        <v>0.08699999999999999</v>
       </c>
     </row>
     <row r="33">
@@ -1143,19 +1047,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.091</v>
+        <v>0.105</v>
       </c>
       <c r="C33" t="n">
-        <v>-0.008</v>
+        <v>-0.006</v>
       </c>
       <c r="D33" t="n">
-        <v>0.25</v>
+        <v>0.309</v>
       </c>
       <c r="E33" t="n">
-        <v>-0.017</v>
-      </c>
-      <c r="F33" t="n">
-        <v>0.207</v>
+        <v>-0.026</v>
       </c>
     </row>
     <row r="34">
@@ -1165,19 +1066,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.008</v>
+        <v>-0.024</v>
       </c>
       <c r="C34" t="n">
-        <v>0.101</v>
+        <v>0.103</v>
       </c>
       <c r="D34" t="n">
-        <v>-0.173</v>
+        <v>-0.07199999999999999</v>
       </c>
       <c r="E34" t="n">
-        <v>0.133</v>
-      </c>
-      <c r="F34" t="n">
-        <v>0.141</v>
+        <v>0.182</v>
       </c>
     </row>
     <row r="35">
@@ -1187,19 +1085,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>-0.019</v>
+        <v>-0.041</v>
       </c>
       <c r="C35" t="n">
-        <v>-0.025</v>
+        <v>-0.015</v>
       </c>
       <c r="D35" t="n">
-        <v>0.25</v>
+        <v>0.532</v>
       </c>
       <c r="E35" t="n">
-        <v>0.042</v>
-      </c>
-      <c r="F35" t="n">
-        <v>0.641</v>
+        <v>0.095</v>
       </c>
     </row>
     <row r="36">
@@ -1209,19 +1104,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.136</v>
+        <v>0.155</v>
       </c>
       <c r="C36" t="n">
-        <v>0.283</v>
+        <v>0.266</v>
       </c>
       <c r="D36" t="n">
-        <v>0.102</v>
+        <v>0.159</v>
       </c>
       <c r="E36" t="n">
-        <v>0.518</v>
-      </c>
-      <c r="F36" t="n">
-        <v>0.081</v>
+        <v>0.509</v>
       </c>
     </row>
     <row r="37">
@@ -1231,19 +1123,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>-0.101</v>
+        <v>-0.027</v>
       </c>
       <c r="C37" t="n">
-        <v>-0.01</v>
+        <v>-0.022</v>
       </c>
       <c r="D37" t="n">
-        <v>0.527</v>
+        <v>0.476</v>
       </c>
       <c r="E37" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="F37" t="n">
-        <v>0.007</v>
+        <v>-0.001</v>
       </c>
     </row>
     <row r="38">
@@ -1253,19 +1142,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.247</v>
+        <v>0.34</v>
       </c>
       <c r="C38" t="n">
-        <v>-0.015</v>
+        <v>-0.024</v>
       </c>
       <c r="D38" t="n">
-        <v>0.718</v>
+        <v>0.585</v>
       </c>
       <c r="E38" t="n">
-        <v>-0.115</v>
-      </c>
-      <c r="F38" t="n">
-        <v>-0.024</v>
+        <v>-0.233</v>
       </c>
     </row>
     <row r="39">
@@ -1275,19 +1161,16 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>0.006</v>
       </c>
       <c r="C39" t="n">
-        <v>0.96</v>
+        <v>0.961</v>
       </c>
       <c r="D39" t="n">
-        <v>0.028</v>
+        <v>0.029</v>
       </c>
       <c r="E39" t="n">
-        <v>-0.07000000000000001</v>
-      </c>
-      <c r="F39" t="n">
-        <v>0.011</v>
+        <v>-0.047</v>
       </c>
     </row>
     <row r="40">
@@ -1297,19 +1180,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.005</v>
+        <v>0.012</v>
       </c>
       <c r="C40" t="n">
-        <v>0.931</v>
+        <v>0.928</v>
       </c>
       <c r="D40" t="n">
-        <v>0.014</v>
+        <v>0.024</v>
       </c>
       <c r="E40" t="n">
-        <v>0.042</v>
-      </c>
-      <c r="F40" t="n">
-        <v>0.008999999999999999</v>
+        <v>0.064</v>
       </c>
     </row>
     <row r="41">
@@ -1319,19 +1199,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.264</v>
+        <v>0.27</v>
       </c>
       <c r="C41" t="n">
-        <v>0.306</v>
+        <v>0.299</v>
       </c>
       <c r="D41" t="n">
-        <v>0.117</v>
+        <v>0.176</v>
       </c>
       <c r="E41" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="F41" t="n">
-        <v>0.153</v>
+        <v>0.267</v>
       </c>
     </row>
     <row r="42">
@@ -1341,19 +1218,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>-0.036</v>
+        <v>-0.037</v>
       </c>
       <c r="C42" t="n">
-        <v>0.8139999999999999</v>
+        <v>0.824</v>
       </c>
       <c r="D42" t="n">
-        <v>0.061</v>
+        <v>0.07099999999999999</v>
       </c>
       <c r="E42" t="n">
-        <v>-0.315</v>
-      </c>
-      <c r="F42" t="n">
-        <v>0.073</v>
+        <v>-0.285</v>
       </c>
     </row>
     <row r="43">
@@ -1363,19 +1237,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.004</v>
+        <v>0.007</v>
       </c>
       <c r="C43" t="n">
-        <v>0.908</v>
+        <v>0.914</v>
       </c>
       <c r="D43" t="n">
-        <v>0.048</v>
+        <v>0.041</v>
       </c>
       <c r="E43" t="n">
-        <v>-0.235</v>
-      </c>
-      <c r="F43" t="n">
-        <v>0.027</v>
+        <v>-0.209</v>
       </c>
     </row>
     <row r="44">
@@ -1385,19 +1256,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.074</v>
+        <v>0.082</v>
       </c>
       <c r="C44" t="n">
         <v>-0.177</v>
       </c>
       <c r="D44" t="n">
-        <v>-0.039</v>
+        <v>-0.156</v>
       </c>
       <c r="E44" t="n">
-        <v>-0.154</v>
-      </c>
-      <c r="F44" t="n">
-        <v>-0.215</v>
+        <v>-0.179</v>
       </c>
     </row>
     <row r="45">
@@ -1407,19 +1275,16 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.192</v>
+        <v>0.202</v>
       </c>
       <c r="C45" t="n">
-        <v>0.954</v>
+        <v>0.949</v>
       </c>
       <c r="D45" t="n">
-        <v>0.008999999999999999</v>
+        <v>-0.021</v>
       </c>
       <c r="E45" t="n">
-        <v>0.07199999999999999</v>
-      </c>
-      <c r="F45" t="n">
-        <v>-0.051</v>
+        <v>0.08799999999999999</v>
       </c>
     </row>
     <row r="46">
@@ -1429,19 +1294,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.175</v>
+        <v>0.185</v>
       </c>
       <c r="C46" t="n">
-        <v>0.898</v>
+        <v>0.89</v>
       </c>
       <c r="D46" t="n">
-        <v>-0.005</v>
+        <v>-0.017</v>
       </c>
       <c r="E46" t="n">
-        <v>0.205</v>
-      </c>
-      <c r="F46" t="n">
-        <v>-0.04</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="47">
@@ -1451,19 +1313,16 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.152</v>
+        <v>0.159</v>
       </c>
       <c r="C47" t="n">
-        <v>0.902</v>
+        <v>0.899</v>
       </c>
       <c r="D47" t="n">
-        <v>-0.01</v>
+        <v>-0.037</v>
       </c>
       <c r="E47" t="n">
-        <v>0.042</v>
-      </c>
-      <c r="F47" t="n">
-        <v>-0.052</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="48">
@@ -1473,19 +1332,16 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.183</v>
+        <v>0.189</v>
       </c>
       <c r="C48" t="n">
-        <v>0.803</v>
+        <v>0.8080000000000001</v>
       </c>
       <c r="D48" t="n">
-        <v>0.063</v>
+        <v>0.022</v>
       </c>
       <c r="E48" t="n">
-        <v>-0.221</v>
-      </c>
-      <c r="F48" t="n">
-        <v>-0.013</v>
+        <v>-0.205</v>
       </c>
     </row>
     <row r="49">
@@ -1498,16 +1354,13 @@
         <v>0.211</v>
       </c>
       <c r="C49" t="n">
-        <v>0.909</v>
+        <v>0.912</v>
       </c>
       <c r="D49" t="n">
-        <v>-0.004</v>
+        <v>-0.036</v>
       </c>
       <c r="E49" t="n">
-        <v>-0.14</v>
-      </c>
-      <c r="F49" t="n">
-        <v>-0.022</v>
+        <v>-0.113</v>
       </c>
     </row>
     <row r="50">
@@ -1517,19 +1370,16 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.005</v>
+        <v>-0.014</v>
       </c>
       <c r="C50" t="n">
-        <v>-0.148</v>
+        <v>-0.137</v>
       </c>
       <c r="D50" t="n">
-        <v>-0.008999999999999999</v>
+        <v>0.037</v>
       </c>
       <c r="E50" t="n">
-        <v>-0.218</v>
-      </c>
-      <c r="F50" t="n">
-        <v>0.129</v>
+        <v>-0.196</v>
       </c>
     </row>
   </sheetData>
@@ -1563,7 +1413,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.625</v>
+        <v>0.111</v>
       </c>
     </row>
     <row r="3">
@@ -1573,7 +1423,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.556</v>
+        <v>0.106</v>
       </c>
     </row>
     <row r="4">
@@ -1583,7 +1433,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.146</v>
+        <v>0.126</v>
       </c>
     </row>
     <row r="5">
@@ -1593,7 +1443,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.806</v>
+        <v>0.779</v>
       </c>
     </row>
     <row r="6">
@@ -1603,7 +1453,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.492</v>
+        <v>0.052</v>
       </c>
     </row>
     <row r="7">
@@ -1613,7 +1463,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.33</v>
+        <v>0.325</v>
       </c>
     </row>
     <row r="8">
@@ -1623,7 +1473,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.8</v>
+        <v>0.794</v>
       </c>
     </row>
     <row r="9">
@@ -1633,7 +1483,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.967</v>
+        <v>0.959</v>
       </c>
     </row>
     <row r="10">
@@ -1643,7 +1493,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.393</v>
+        <v>0.349</v>
       </c>
     </row>
     <row r="11">
@@ -1653,7 +1503,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.141</v>
+        <v>0.139</v>
       </c>
     </row>
     <row r="12">
@@ -1663,7 +1513,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.198</v>
+        <v>0.147</v>
       </c>
     </row>
     <row r="13">
@@ -1673,7 +1523,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.26</v>
+        <v>0.236</v>
       </c>
     </row>
     <row r="14">
@@ -1683,7 +1533,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.837</v>
+        <v>0.804</v>
       </c>
     </row>
     <row r="15">
@@ -1693,7 +1543,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.231</v>
+        <v>0.205</v>
       </c>
     </row>
     <row r="16">
@@ -1703,7 +1553,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.491</v>
+        <v>0.478</v>
       </c>
     </row>
     <row r="17">
@@ -1713,7 +1563,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.38</v>
+        <v>0.376</v>
       </c>
     </row>
     <row r="18">
@@ -1723,7 +1573,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.763</v>
+        <v>0.751</v>
       </c>
     </row>
     <row r="19">
@@ -1733,7 +1583,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.875</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="20">
@@ -1743,7 +1593,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.09</v>
+        <v>0.08799999999999999</v>
       </c>
     </row>
     <row r="21">
@@ -1753,7 +1603,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.832</v>
+        <v>0.806</v>
       </c>
     </row>
     <row r="22">
@@ -1763,7 +1613,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.801</v>
+        <v>0.797</v>
       </c>
     </row>
     <row r="23">
@@ -1773,7 +1623,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.763</v>
+        <v>0.757</v>
       </c>
     </row>
     <row r="24">
@@ -1783,7 +1633,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.948</v>
+        <v>0.9389999999999999</v>
       </c>
     </row>
     <row r="25">
@@ -1793,7 +1643,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.249</v>
+        <v>0.248</v>
       </c>
     </row>
     <row r="26">
@@ -1803,7 +1653,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.473</v>
+        <v>0.421</v>
       </c>
     </row>
     <row r="27">
@@ -1813,7 +1663,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.627</v>
+        <v>0.533</v>
       </c>
     </row>
     <row r="28">
@@ -1823,7 +1673,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.435</v>
+        <v>0.364</v>
       </c>
     </row>
     <row r="29">
@@ -1833,7 +1683,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.5629999999999999</v>
+        <v>0.505</v>
       </c>
     </row>
     <row r="30">
@@ -1843,7 +1693,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.314</v>
+        <v>0.291</v>
       </c>
     </row>
     <row r="31">
@@ -1853,7 +1703,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.102</v>
+        <v>0.101</v>
       </c>
     </row>
     <row r="32">
@@ -1863,7 +1713,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.525</v>
+        <v>0.342</v>
       </c>
     </row>
     <row r="33">
@@ -1873,7 +1723,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.114</v>
+        <v>0.107</v>
       </c>
     </row>
     <row r="34">
@@ -1883,7 +1733,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.078</v>
+        <v>0.049</v>
       </c>
     </row>
     <row r="35">
@@ -1893,7 +1743,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.477</v>
+        <v>0.294</v>
       </c>
     </row>
     <row r="36">
@@ -1903,7 +1753,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.384</v>
+        <v>0.379</v>
       </c>
     </row>
     <row r="37">
@@ -1913,7 +1763,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.296</v>
+        <v>0.228</v>
       </c>
     </row>
     <row r="38">
@@ -1923,7 +1773,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.591</v>
+        <v>0.513</v>
       </c>
     </row>
     <row r="39">
@@ -1943,7 +1793,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.868</v>
+        <v>0.867</v>
       </c>
     </row>
     <row r="41">
@@ -1953,7 +1803,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.268</v>
+        <v>0.265</v>
       </c>
     </row>
     <row r="42">
@@ -1963,7 +1813,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.771</v>
+        <v>0.767</v>
       </c>
     </row>
     <row r="43">
@@ -1973,7 +1823,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.882</v>
+        <v>0.881</v>
       </c>
     </row>
     <row r="44">
@@ -1983,7 +1833,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.108</v>
+        <v>0.094</v>
       </c>
     </row>
     <row r="45">
@@ -1993,7 +1843,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.955</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="46">
@@ -2003,7 +1853,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.881</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="47">
@@ -2013,7 +1863,7 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.841</v>
+        <v>0.838</v>
       </c>
     </row>
     <row r="48">
@@ -2043,7 +1893,7 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.08599999999999999</v>
+        <v>0.059</v>
       </c>
     </row>
   </sheetData>
@@ -2371,151 +2221,151 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>10.591</v>
+        <v>10.578</v>
       </c>
       <c r="C3" t="n">
-        <v>6.572</v>
+        <v>6.563</v>
       </c>
       <c r="D3" t="n">
-        <v>2.602</v>
+        <v>2.515</v>
       </c>
       <c r="E3" t="n">
-        <v>2.44</v>
+        <v>2.407</v>
       </c>
       <c r="F3" t="n">
-        <v>2.179</v>
+        <v>1.882</v>
       </c>
       <c r="G3" t="n">
-        <v>1.591</v>
+        <v>1.551</v>
       </c>
       <c r="H3" t="n">
-        <v>1.539</v>
+        <v>1.461</v>
       </c>
       <c r="I3" t="n">
-        <v>1.124</v>
+        <v>1.061</v>
       </c>
       <c r="J3" t="n">
-        <v>0.983</v>
+        <v>0.86</v>
       </c>
       <c r="K3" t="n">
-        <v>0.663</v>
+        <v>0.631</v>
       </c>
       <c r="L3" t="n">
-        <v>0.581</v>
+        <v>0.544</v>
       </c>
       <c r="M3" t="n">
-        <v>0.504</v>
+        <v>0.464</v>
       </c>
       <c r="N3" t="n">
-        <v>0.435</v>
+        <v>0.41</v>
       </c>
       <c r="O3" t="n">
-        <v>0.387</v>
+        <v>0.342</v>
       </c>
       <c r="P3" t="n">
-        <v>0.343</v>
+        <v>0.293</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.228</v>
+        <v>0.202</v>
       </c>
       <c r="R3" t="n">
-        <v>0.191</v>
+        <v>0.14</v>
       </c>
       <c r="S3" t="n">
-        <v>0.154</v>
+        <v>0.12</v>
       </c>
       <c r="T3" t="n">
-        <v>0.116</v>
+        <v>0.074</v>
       </c>
       <c r="U3" t="n">
-        <v>0.06900000000000001</v>
+        <v>-0.003</v>
       </c>
       <c r="V3" t="n">
-        <v>0.004</v>
+        <v>-0.026</v>
       </c>
       <c r="W3" t="n">
-        <v>-0.023</v>
+        <v>-0.035</v>
       </c>
       <c r="X3" t="n">
-        <v>-0.029</v>
+        <v>-0.047</v>
       </c>
       <c r="Y3" t="n">
-        <v>-0.053</v>
+        <v>-0.059</v>
       </c>
       <c r="Z3" t="n">
-        <v>-0.055</v>
+        <v>-0.07099999999999999</v>
       </c>
       <c r="AA3" t="n">
-        <v>-0.079</v>
+        <v>-0.081</v>
       </c>
       <c r="AB3" t="n">
-        <v>-0.08799999999999999</v>
+        <v>-0.104</v>
       </c>
       <c r="AC3" t="n">
-        <v>-0.096</v>
+        <v>-0.106</v>
       </c>
       <c r="AD3" t="n">
-        <v>-0.113</v>
+        <v>-0.124</v>
       </c>
       <c r="AE3" t="n">
-        <v>-0.144</v>
+        <v>-0.176</v>
       </c>
       <c r="AF3" t="n">
-        <v>-0.156</v>
+        <v>-0.183</v>
       </c>
       <c r="AG3" t="n">
-        <v>-0.174</v>
+        <v>-0.197</v>
       </c>
       <c r="AH3" t="n">
-        <v>-0.177</v>
+        <v>-0.202</v>
       </c>
       <c r="AI3" t="n">
-        <v>-0.19</v>
+        <v>-0.204</v>
       </c>
       <c r="AJ3" t="n">
-        <v>-0.197</v>
+        <v>-0.212</v>
       </c>
       <c r="AK3" t="n">
-        <v>-0.204</v>
+        <v>-0.235</v>
       </c>
       <c r="AL3" t="n">
-        <v>-0.218</v>
+        <v>-0.257</v>
       </c>
       <c r="AM3" t="n">
-        <v>-0.225</v>
+        <v>-0.286</v>
       </c>
       <c r="AN3" t="n">
-        <v>-0.26</v>
+        <v>-0.327</v>
       </c>
       <c r="AO3" t="n">
-        <v>-0.302</v>
+        <v>-0.365</v>
       </c>
       <c r="AP3" t="n">
-        <v>-0.321</v>
+        <v>-0.43</v>
       </c>
       <c r="AQ3" t="n">
-        <v>-0.356</v>
+        <v>-0.463</v>
       </c>
       <c r="AR3" t="n">
-        <v>-0.395</v>
+        <v>-0.499</v>
       </c>
       <c r="AS3" t="n">
-        <v>-0.421</v>
+        <v>-0.556</v>
       </c>
       <c r="AT3" t="n">
-        <v>-0.482</v>
+        <v>-0.586</v>
       </c>
       <c r="AU3" t="n">
-        <v>-0.51</v>
+        <v>-0.633</v>
       </c>
       <c r="AV3" t="n">
-        <v>-0.523</v>
+        <v>-0.677</v>
       </c>
       <c r="AW3" t="n">
-        <v>-0.628</v>
+        <v>-0.6909999999999999</v>
       </c>
       <c r="AX3" t="n">
-        <v>-0.717</v>
+        <v>-0.751</v>
       </c>
     </row>
   </sheetData>
@@ -2529,7 +2379,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2550,28 +2400,22 @@
       <c r="E1" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="n">
-        <v>4</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>8.872</v>
+        <v>9.227</v>
       </c>
       <c r="C2" t="n">
-        <v>8.058</v>
+        <v>8.077999999999999</v>
       </c>
       <c r="D2" t="n">
-        <v>3.526</v>
+        <v>3.313</v>
       </c>
       <c r="E2" t="n">
-        <v>2.934</v>
-      </c>
-      <c r="F2" t="n">
-        <v>2.771</v>
+        <v>2.893</v>
       </c>
     </row>
     <row r="3">
@@ -2579,19 +2423,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.181</v>
+        <v>0.188</v>
       </c>
       <c r="C3" t="n">
-        <v>0.164</v>
+        <v>0.165</v>
       </c>
       <c r="D3" t="n">
-        <v>0.07199999999999999</v>
+        <v>0.068</v>
       </c>
       <c r="E3" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.057</v>
+        <v>0.059</v>
       </c>
     </row>
     <row r="4">
@@ -2599,19 +2440,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.181</v>
+        <v>0.188</v>
       </c>
       <c r="C4" t="n">
-        <v>0.346</v>
+        <v>0.353</v>
       </c>
       <c r="D4" t="n">
-        <v>0.417</v>
+        <v>0.421</v>
       </c>
       <c r="E4" t="n">
-        <v>0.477</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.534</v>
+        <v>0.48</v>
       </c>
     </row>
   </sheetData>
@@ -2643,7 +2481,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.375</v>
+        <v>0.889</v>
       </c>
     </row>
     <row r="3">
@@ -2651,7 +2489,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.444</v>
+        <v>0.894</v>
       </c>
     </row>
     <row r="4">
@@ -2659,7 +2497,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.854</v>
+        <v>0.874</v>
       </c>
     </row>
     <row r="5">
@@ -2667,7 +2505,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.194</v>
+        <v>0.221</v>
       </c>
     </row>
     <row r="6">
@@ -2675,7 +2513,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.508</v>
+        <v>0.948</v>
       </c>
     </row>
     <row r="7">
@@ -2683,7 +2521,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.67</v>
+        <v>0.675</v>
       </c>
     </row>
     <row r="8">
@@ -2691,7 +2529,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.2</v>
+        <v>0.206</v>
       </c>
     </row>
     <row r="9">
@@ -2699,7 +2537,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.033</v>
+        <v>0.041</v>
       </c>
     </row>
     <row r="10">
@@ -2707,7 +2545,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.607</v>
+        <v>0.651</v>
       </c>
     </row>
     <row r="11">
@@ -2715,7 +2553,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.859</v>
+        <v>0.861</v>
       </c>
     </row>
     <row r="12">
@@ -2723,7 +2561,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.802</v>
+        <v>0.853</v>
       </c>
     </row>
     <row r="13">
@@ -2731,7 +2569,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.74</v>
+        <v>0.764</v>
       </c>
     </row>
     <row r="14">
@@ -2739,7 +2577,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.163</v>
+        <v>0.196</v>
       </c>
     </row>
     <row r="15">
@@ -2747,7 +2585,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.769</v>
+        <v>0.795</v>
       </c>
     </row>
     <row r="16">
@@ -2755,7 +2593,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.509</v>
+        <v>0.522</v>
       </c>
     </row>
     <row r="17">
@@ -2763,7 +2601,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.62</v>
+        <v>0.624</v>
       </c>
     </row>
     <row r="18">
@@ -2771,7 +2609,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.237</v>
+        <v>0.249</v>
       </c>
     </row>
     <row r="19">
@@ -2779,7 +2617,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.125</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="20">
@@ -2787,7 +2625,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.91</v>
+        <v>0.912</v>
       </c>
     </row>
     <row r="21">
@@ -2795,7 +2633,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.168</v>
+        <v>0.194</v>
       </c>
     </row>
     <row r="22">
@@ -2803,7 +2641,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.199</v>
+        <v>0.203</v>
       </c>
     </row>
     <row r="23">
@@ -2811,7 +2649,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.237</v>
+        <v>0.243</v>
       </c>
     </row>
     <row r="24">
@@ -2819,7 +2657,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.052</v>
+        <v>0.061</v>
       </c>
     </row>
     <row r="25">
@@ -2827,7 +2665,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.751</v>
+        <v>0.752</v>
       </c>
     </row>
     <row r="26">
@@ -2835,7 +2673,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.527</v>
+        <v>0.579</v>
       </c>
     </row>
     <row r="27">
@@ -2843,7 +2681,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.373</v>
+        <v>0.467</v>
       </c>
     </row>
     <row r="28">
@@ -2851,7 +2689,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.5649999999999999</v>
+        <v>0.636</v>
       </c>
     </row>
     <row r="29">
@@ -2859,7 +2697,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.437</v>
+        <v>0.495</v>
       </c>
     </row>
     <row r="30">
@@ -2867,7 +2705,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.6860000000000001</v>
+        <v>0.709</v>
       </c>
     </row>
     <row r="31">
@@ -2875,7 +2713,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.898</v>
+        <v>0.899</v>
       </c>
     </row>
     <row r="32">
@@ -2883,7 +2721,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>0.475</v>
+        <v>0.658</v>
       </c>
     </row>
     <row r="33">
@@ -2891,7 +2729,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>0.886</v>
+        <v>0.893</v>
       </c>
     </row>
     <row r="34">
@@ -2899,7 +2737,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>0.922</v>
+        <v>0.951</v>
       </c>
     </row>
     <row r="35">
@@ -2907,7 +2745,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>0.523</v>
+        <v>0.706</v>
       </c>
     </row>
     <row r="36">
@@ -2915,7 +2753,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>0.616</v>
+        <v>0.621</v>
       </c>
     </row>
     <row r="37">
@@ -2923,7 +2761,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>0.704</v>
+        <v>0.772</v>
       </c>
     </row>
     <row r="38">
@@ -2931,7 +2769,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>0.409</v>
+        <v>0.487</v>
       </c>
     </row>
     <row r="39">
@@ -2947,7 +2785,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>0.132</v>
+        <v>0.133</v>
       </c>
     </row>
     <row r="41">
@@ -2955,7 +2793,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>0.732</v>
+        <v>0.735</v>
       </c>
     </row>
     <row r="42">
@@ -2963,7 +2801,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>0.229</v>
+        <v>0.233</v>
       </c>
     </row>
     <row r="43">
@@ -2971,7 +2809,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>0.118</v>
+        <v>0.119</v>
       </c>
     </row>
     <row r="44">
@@ -2979,7 +2817,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>0.892</v>
+        <v>0.906</v>
       </c>
     </row>
     <row r="45">
@@ -2987,7 +2825,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>0.045</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="46">
@@ -2995,7 +2833,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>0.119</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="47">
@@ -3003,7 +2841,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>0.159</v>
+        <v>0.162</v>
       </c>
     </row>
     <row r="48">
@@ -3027,7 +2865,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>0.914</v>
+        <v>0.9409999999999999</v>
       </c>
     </row>
   </sheetData>
